--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr date1904="1"/>
+  <workbookPr date1904="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/AMMZonov1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/Desktop/Лабораторные/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -176,6 +176,10 @@
     <font>
       <sz val="12"/>
       <color indexed="13"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -352,11 +356,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,10 +1554,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1564,12 +1568,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1613,14 +1617,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1634,7 +1638,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1648,7 +1652,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1662,7 +1666,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1676,7 +1680,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1690,7 +1694,7 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1771,8 +1775,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="42" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/Desktop/Лабораторные/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/AMMZonov1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Table 1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка подсчётом" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Написать программу, которая принимает на вход адрес в файловой системы, например c://Program Files необходимо вывести все файлы с расширением exe.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -322,13 +325,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -361,6 +392,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,20 +1594,21 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="89.6640625" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.1640625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1616,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1599,11 +1640,13 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="94" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1613,11 +1656,13 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1627,11 +1672,13 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1641,11 +1688,13 @@
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="104" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1655,11 +1704,13 @@
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1669,11 +1720,13 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1683,11 +1736,15 @@
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="E9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1697,11 +1754,13 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1711,11 +1770,13 @@
       <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1725,11 +1786,13 @@
       <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1739,11 +1802,13 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1753,11 +1818,13 @@
       <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1767,9 +1834,11 @@
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="24180" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Table 1</t>
   </si>
@@ -152,7 +152,25 @@
     <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка подсчётом" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
   </si>
   <si>
-    <t>Написать программу, которая принимает на вход адрес в файловой системы, например c://Program Files необходимо вывести все файлы с расширением exe.</t>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +-*/.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа, разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по возрастанию. Результат записать в файл.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +- и факториал - "!" .</t>
+  </si>
+  <si>
+    <t>Согласно легенде в Великом храме города Бенарас, под собором, отмечающим середину мира, находится бронзовый диск, на котором укреплены 3 алмазных стержня, высотой в один локоть и толщиной с пчелу. Давным-давно, в самом начале времен монахи этого монастыря провинились перед богом Брамой. Разгневанный, Брама воздвиг три высоких стержня и на один из них поместил 64 диска из чистого золота, причем так, что каждый меньший диск лежит на большем. Как только все 64 диска будут переложены со стержня, на который Бог Брама сложил их при создании мира, на другой стержень, башня вместе с храмом обратятся в пыль и под громовые раскаты погибнет мир.
+В процессе требуется, чтобы больший диск ни разу не оказывался над меньшим. Монахи в затруднении, в какой же последовательности стоит делать перекладывания? Требуется снабдить их софтом для расчета этой последовательности.
+Независимо от Брамы данную головоломку в конце 19 века предложил французский математик Эдуард Люка. В продаваемом варианте обычно использовалось 7-8 дисков
+Головоломка "Ханойские башни"
+Предположим, что существует решение для n-1 диска. Тогда для перекладывания n дисков надо действовать следующим образом:
+   1) Перекладываем n-1 диск.
+   2) Перекладываем n-й диск на оставшийся свободным штырь.
+   3) Перекладываем стопку из n-1 диска, полученную в пункте (1) поверх n-го диска.
+Поскольку для случая n = 1 алгоритм перекладывания очевиден, то по индукции с помощью выполнения действий (1) – (3) можем переложить произвольное количество дисков.
+Создать рекурсивную функцию печатающую всю последовательность перекладываний для заданного количества дисков в файл. Такая процедура при каждом своем вызове должна печатать информацию об одном перекладывании (из пункта 2 алгоритма). Для перекладываний из пунктов (1) и (3) процедура вызовет сама себя с уменьшенным на единицу количеством дисков.</t>
   </si>
 </sst>
 </file>
@@ -359,7 +377,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,9 +408,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,6 +416,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,27 +1615,27 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="89.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="180.5" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1640,11 +1661,11 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
@@ -1656,13 +1677,13 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="248" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1672,11 +1693,13 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -1688,11 +1711,11 @@
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="104" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -1704,11 +1727,13 @@
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1720,11 +1745,13 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
@@ -1736,13 +1763,13 @@
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -1754,11 +1781,11 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -1770,11 +1797,11 @@
       <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -1786,11 +1813,11 @@
       <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -1802,11 +1829,11 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
@@ -1818,11 +1845,11 @@
       <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
@@ -1834,11 +1861,11 @@
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="24180" windowHeight="15540"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Table 1</t>
   </si>
@@ -172,12 +172,33 @@
 Поскольку для случая n = 1 алгоритм перекладывания очевиден, то по индукции с помощью выполнения действий (1) – (3) можем переложить произвольное количество дисков.
 Создать рекурсивную функцию печатающую всю последовательность перекладываний для заданного количества дисков в файл. Такая процедура при каждом своем вызове должна печатать информацию об одном перекладывании (из пункта 2 алгоритма). Для перекладываний из пунктов (1) и (3) процедура вызовет сама себя с уменьшенным на единицу количеством дисков.</t>
   </si>
+  <si>
+    <t>Дано бинарное дерево, в вершине которого содержится строка и два указателя на элементы-потомки. В программе должны быть разработаны минимум две функции. Первая функция должна определять количество ветвей n-го уровня для этого дерева. Вторая функция выполняет вывод элементов дерева на экран.</t>
+  </si>
+  <si>
+    <t>Динамические структуры данных</t>
+  </si>
+  <si>
+    <t>Написать программу, которая должна выполнять следующие операции:
+Создавать двусвязный циклический  список.
+Операцию дополнения списка
+Операцию просмотра списка
+Операцию удаления элементов списка.
+Сортировка методом Пузырька.</t>
+  </si>
+  <si>
+    <t>В программу вводится набор символов, заканчивающийся символом точки. Ввод организовать с клавиатуры или из файла, выбор предоставляется пользователю. Набор символов нужно разбить на слова и сформировать односвязный список, информационное поле элементов которого содержит ссылку на очередное слово. Словом считается последовательность букв латинского алфавита произвольной длины. Все символы, отличные от букв латинского алфавита считаются разделителями слов.
+Программа должна удалять из списка все пары слов, которые являются обратными друг другу, например,  abc и cba.</t>
+  </si>
+  <si>
+    <t>Работа с файлами, рекурсия</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -201,6 +222,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -377,7 +403,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -420,8 +446,14 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1647,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
@@ -1626,16 +1658,17 @@
     <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="89.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="180.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="133.1640625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1649,6 +1682,12 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
@@ -1696,10 +1735,12 @@
       <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -1717,7 +1758,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="148" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1730,10 +1771,12 @@
       <c r="D7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1766,10 +1809,12 @@
       <c r="D9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -1873,7 +1918,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="42" orientation="portrait"/>
+  <pageSetup scale="22" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Table 1</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Работа с файлами, рекурсия</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только буквы разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих букв по алфавиту Результат записать в файл.</t>
   </si>
 </sst>
 </file>
@@ -449,11 +452,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1647,10 +1650,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1663,12 +1666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1738,7 +1741,7 @@
       <c r="E5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1826,10 +1829,12 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.15">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -1650,10 +1650,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1777,7 @@
       <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       <c r="E9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Table 1</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только буквы разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих букв по алфавиту Результат записать в файл.</t>
+  </si>
+  <si>
+    <t>Дано натуральное число N. Вычислите сумму его цифр.
+При решении этой задачи необходимо использовать рекурсивную функцию,  нельзя использовать строки, списки, массивы (ну и циклы, разумеется).</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1654,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1755,10 +1759,12 @@
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="148" customHeight="1" x14ac:dyDescent="0.15">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Table 1</t>
   </si>
@@ -199,6 +199,9 @@
   <si>
     <t>Дано натуральное число N. Вычислите сумму его цифр.
 При решении этой задачи необходимо использовать рекурсивную функцию,  нельзя использовать строки, списки, массивы (ну и циклы, разумеется).</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
   </si>
 </sst>
 </file>
@@ -456,11 +459,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,10 +1657,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1670,12 +1673,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1745,7 +1748,7 @@
       <c r="E5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1898,13 +1901,15 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Table 1</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
+  </si>
+  <si>
+    <t>Используя рекурсию найти наибольший общий делитель числа</t>
+  </si>
+  <si>
+    <t>Используя рекурсию найти сумму цифр числа. Нельзя использовать строки, списки, массивы</t>
   </si>
 </sst>
 </file>
@@ -459,11 +465,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,10 +1663,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,12 +1679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1710,10 +1716,12 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.15">
@@ -1726,10 +1734,12 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="248" customHeight="1" x14ac:dyDescent="0.15">
@@ -1748,7 +1758,7 @@
       <c r="E5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1765,7 +1775,7 @@
       <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="11"/>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Table 1</t>
   </si>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>Используя рекурсию найти сумму цифр числа. Нельзя использовать строки, списки, массивы</t>
+  </si>
+  <si>
+    <t>Написать программу, которая должна выполнять следующие операции:
+Создавать односвязный циклический  список.
+Операцию дополнения списка
+Операцию просмотра списка
+Операцию удаления элементов списка.
+Сортировку</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1671,10 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1813,10 +1821,12 @@
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -1,30 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr date1904="1" checkCompatibility="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azon/AMMZonov1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Table 1</t>
   </si>
@@ -38,127 +26,46 @@
     <t>Структуры</t>
   </si>
   <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Работа с файлами, рекурсия</t>
+  </si>
+  <si>
+    <t>Динамические структуры данных</t>
+  </si>
+  <si>
     <t>Мостовая Анастасия</t>
   </si>
   <si>
     <t>Имеется информация об N участниках спортивных соревнований по пятиборью. О каждом участнике известна следующая информация: фамилия, место, занимаемое по каждому из видов. Ввести информацию по участникам соревнований и вывести информацию о спортсмене, который занял последнее место по сумме мест в пятиборье.</t>
   </si>
   <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм сортировки "перемешиванием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Используя рекурсию найти сумму цифр числа. Нельзя использовать строки, списки, массивы</t>
+  </si>
+  <si>
     <t>Никитина Наталия</t>
   </si>
   <si>
     <t>Картотека видеотеки организована в виде массива структур с полями: название фильма, стоимость, режиссер. Ввести информацию по видеотеке и вывести информацию о фильмах любого одного режиссера.</t>
   </si>
   <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка вставками" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Используя рекурсию найти наибольший общий делитель числа</t>
+  </si>
+  <si>
     <t>Морозкина Анна</t>
   </si>
   <si>
     <t>Имеется информация по итогам экзаменов в институте всего в списке N человек. По каждому из студентов имеются следующие сведения: фамилия, оценка по математике, оценка по информатике и оценка по физике. Ввести информацию об экзаменах и напечатать количество и фамилии студентов, которые получили на экзамене две пятерки и одну четверку.</t>
   </si>
   <si>
-    <t>Бондарь Елена</t>
-  </si>
-  <si>
-    <t>Имеется информация об N членах спортивной секции: фамилия, возраст, рост. Ввести информацию о каждом. Напечатать информацию о тех чей возраст ниже среднего, а рост выше среднего по секции.</t>
-  </si>
-  <si>
-    <t>Сучкова Мария</t>
-  </si>
-  <si>
-    <t>Картотека видеотеки организована в виде массива структур с полями: название фильма, стоимость, режиссер. Ввести информацию по видеотеке и вывести информацию о фильмах по возрастанию стоимости.</t>
-  </si>
-  <si>
-    <t>Девятов Владислав</t>
-  </si>
-  <si>
-    <t>В населенном пункте проживает N человек. О каждом известны фамилия, возраст, пол. Ввести информацию о жителях данного пункта и посчитать средний возраст женщин и мужчин, вывести информацию о тех у кого возраст больше среднего.</t>
-  </si>
-  <si>
-    <t>Костенко Ксения</t>
-  </si>
-  <si>
-    <t>Информация по N заводам города задается строкой следующего вида: фамилия, средний возраст, специальность, средний оклад. Ввести информацию по заводам,создать отдельный массив структур, содержащий информацию только об инженерах. Напечатать этот массив.</t>
-  </si>
-  <si>
-    <t>Лазенкова Евгения</t>
-  </si>
-  <si>
-    <t>Имеется информация по итогам экзаменов в институте всего в списке N человек. По каждому из студентов имеются следующие сведения: фамилия, оценка по математике, оценка по информатике и оценка по физике. Ввести информацию об экзаменах и напечатать количество и фамилии студентов, которые сдали информатику с оценкой отлично.</t>
-  </si>
-  <si>
-    <t>Донских Ольга</t>
-  </si>
-  <si>
-    <t>Багаж пассажира характеризуется количеством вещей и общим весом. Ввести информацию об N пассажирах и определить есть ли среди пассажиров такой, у которого самый маленький багаж по числу и по весу.</t>
-  </si>
-  <si>
-    <t>Данилов Иван</t>
-  </si>
-  <si>
-    <t>Информация по N заводам города задается строкой следующего вида: фамилия, средний возраст, специальность, средний оклад. Ввести информацию по заводам, посчитать средний оклад по всем заводам. Посчитать количество заводов, где средний оклад по заводу выше среднего по всем заводам. Напечатать это значение и вывести информацию по этим заводам.</t>
-  </si>
-  <si>
-    <t>Кривинец Андрей</t>
-  </si>
-  <si>
-    <t>Имеется информация об N членах спортивной секции: фамилия, возраст, рост. Ввести информацию о каждом. Напечатать фамилию самого высокого.</t>
-  </si>
-  <si>
-    <t>Леденев Максим</t>
-  </si>
-  <si>
-    <t>Имеется информация об N участниках спортивных соревнований по пятиборью. О каждом участнике известна следующая информация: фамилия, место, занимаемое по каждому из видов. Ввести информацию по участникам соревнований и вывести информацию о победителе в каждом виде спорта.</t>
-  </si>
-  <si>
-    <t>Ехина Алена</t>
-  </si>
-  <si>
-    <t>Багаж пассажира характеризуется количеством вещей и общим весом. Ввести информацию об N пассажирах и определить есть ли среди пассажиров такой, у которого самый большой багаж по числу и по весу.</t>
-  </si>
-  <si>
-    <t>Функции</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм сортировки "перемешиванием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
     <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Гномья сортировка "и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка вставками" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка слиянием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка Шелла" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка расчёской" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Пирамидальная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Быстрая сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Поразрядная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка подсчётом" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +-*/.</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа, разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по возрастанию. Результат записать в файл.</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +- и факториал - "!" .</t>
   </si>
   <si>
     <t>Согласно легенде в Великом храме города Бенарас, под собором, отмечающим середину мира, находится бронзовый диск, на котором укреплены 3 алмазных стержня, высотой в один локоть и толщиной с пчелу. Давным-давно, в самом начале времен монахи этого монастыря провинились перед богом Брамой. Разгневанный, Брама воздвиг три высоких стержня и на один из них поместил 64 диска из чистого золота, причем так, что каждый меньший диск лежит на большем. Как только все 64 диска будут переложены со стержня, на который Бог Брама сложил их при создании мира, на другой стержень, башня вместе с храмом обратятся в пыль и под громовые раскаты погибнет мир.
@@ -176,7 +83,26 @@
     <t>Дано бинарное дерево, в вершине которого содержится строка и два указателя на элементы-потомки. В программе должны быть разработаны минимум две функции. Первая функция должна определять количество ветвей n-го уровня для этого дерева. Вторая функция выполняет вывод элементов дерева на экран.</t>
   </si>
   <si>
-    <t>Динамические структуры данных</t>
+    <t>Бондарь Елена</t>
+  </si>
+  <si>
+    <t>Имеется информация об N членах спортивной секции: фамилия, возраст, рост. Ввести информацию о каждом. Напечатать информацию о тех чей возраст ниже среднего, а рост выше среднего по секции.</t>
+  </si>
+  <si>
+    <t>Дано натуральное число N. Вычислите сумму его цифр.
+При решении этой задачи необходимо использовать рекурсивную функцию,  нельзя использовать строки, списки, массивы (ну и циклы, разумеется).</t>
+  </si>
+  <si>
+    <t>Сучкова Мария</t>
+  </si>
+  <si>
+    <t>Картотека видеотеки организована в виде массива структур с полями: название фильма, стоимость, режиссер. Ввести информацию по видеотеке и вывести информацию о фильмах по возрастанию стоимости.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка подсчётом" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +- и факториал - "!" .</t>
   </si>
   <si>
     <t>Написать программу, которая должна выполнять следующие операции:
@@ -187,27 +113,16 @@
 Сортировка методом Пузырька.</t>
   </si>
   <si>
-    <t>В программу вводится набор символов, заканчивающийся символом точки. Ввод организовать с клавиатуры или из файла, выбор предоставляется пользователю. Набор символов нужно разбить на слова и сформировать односвязный список, информационное поле элементов которого содержит ссылку на очередное слово. Словом считается последовательность букв латинского алфавита произвольной длины. Все символы, отличные от букв латинского алфавита считаются разделителями слов.
-Программа должна удалять из списка все пары слов, которые являются обратными друг другу, например,  abc и cba.</t>
-  </si>
-  <si>
-    <t>Работа с файлами, рекурсия</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только буквы разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих букв по алфавиту Результат записать в файл.</t>
-  </si>
-  <si>
-    <t>Дано натуральное число N. Вычислите сумму его цифр.
-При решении этой задачи необходимо использовать рекурсивную функцию,  нельзя использовать строки, списки, массивы (ну и циклы, разумеется).</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
-  </si>
-  <si>
-    <t>Используя рекурсию найти наибольший общий делитель числа</t>
-  </si>
-  <si>
-    <t>Используя рекурсию найти сумму цифр числа. Нельзя использовать строки, списки, массивы</t>
+    <t>Девятов Владислав</t>
+  </si>
+  <si>
+    <t>В населенном пункте проживает N человек. О каждом известны фамилия, возраст, пол. Ввести информацию о жителях данного пункта и посчитать средний возраст женщин и мужчин, вывести информацию о тех у кого возраст больше среднего.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Быстрая сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа, разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по возрастанию. Результат записать в файл.</t>
   </si>
   <si>
     <t>Написать программу, которая должна выполнять следующие операции:
@@ -217,12 +132,88 @@
 Операцию удаления элементов списка.
 Сортировку</t>
   </si>
+  <si>
+    <t>Костенко Ксения</t>
+  </si>
+  <si>
+    <t>Информация по N заводам города задается строкой следующего вида: фамилия, средний возраст, специальность, средний оклад. Ввести информацию по заводам,создать отдельный массив структур, содержащий информацию только об инженерах. Напечатать этот массив.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, проверить что выражение , находящееся в нем является математическим выражением и посчитать. Выражение может содерржать скобки () знаки +-*/.</t>
+  </si>
+  <si>
+    <t>В программу вводится набор символов, заканчивающийся символом точки. Ввод организовать с клавиатуры или из файла, выбор предоставляется пользователю. Набор символов нужно разбить на слова и сформировать односвязный список, информационное поле элементов которого содержит ссылку на очередное слово. Словом считается последовательность букв латинского алфавита произвольной длины. Все символы, отличные от букв латинского алфавита считаются разделителями слов.
+Программа должна удалять из списка все пары слов, которые являются обратными друг другу, например,  abc и cba.</t>
+  </si>
+  <si>
+    <t>Лазенкова Евгения</t>
+  </si>
+  <si>
+    <t>Имеется информация по итогам экзаменов в институте всего в списке N человек. По каждому из студентов имеются следующие сведения: фамилия, оценка по математике, оценка по информатике и оценка по физике. Ввести информацию об экзаменах и напечатать количество и фамилии студентов, которые сдали информатику с оценкой отлично.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка Шелла" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только буквы разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих букв по алфавиту Результат записать в файл.</t>
+  </si>
+  <si>
+    <t>Донских Ольга</t>
+  </si>
+  <si>
+    <t>Багаж пассажира характеризуется количеством вещей и общим весом. Ввести информацию об N пассажирах и определить есть ли среди пассажиров такой, у которого самый маленький багаж по числу и по весу.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка расчёской" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Данилов Иван</t>
+  </si>
+  <si>
+    <t>Информация по N заводам города задается строкой следующего вида: фамилия, средний возраст, специальность, средний оклад. Ввести информацию по заводам, посчитать средний оклад по всем заводам. Посчитать количество заводов, где средний оклад по заводу выше среднего по всем заводам. Напечатать это значение и вывести информацию по этим заводам.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Поразрядная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Кривинец Андрей</t>
+  </si>
+  <si>
+    <t>Имеется информация об N членах спортивной секции: фамилия, возраст, рост. Ввести информацию о каждом. Напечатать фамилию самого высокого.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Пирамидальная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>Леденев Максим</t>
+  </si>
+  <si>
+    <t>Имеется информация об N участниках спортивных соревнований по пятиборью. О каждом участнике известна следующая информация: фамилия, место, занимаемое по каждому из видов. Ввести информацию по участникам соревнований и вывести информацию о победителе в каждом виде спорта.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
+  <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
+  </si>
+  <si>
+    <t>Ехина Алена</t>
+  </si>
+  <si>
+    <t>Багаж пассажира характеризуется количеством вещей и общим весом. Ввести информацию об N пассажирах и определить есть ли среди пассажиров такой, у которого самый большой багаж по числу и по весу.</t>
+  </si>
+  <si>
+    <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Сортировка слиянием" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -234,18 +225,19 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -254,7 +246,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +267,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -292,6 +290,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -305,7 +325,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -314,7 +334,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,43 +343,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -368,201 +388,211 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FF292929"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff292929"/>
+      <rgbColor rgb="ffc4e5af"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -572,10 +602,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -688,7 +718,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -697,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -706,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -769,17 +799,18 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -787,39 +818,33 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -842,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,32 +1088,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1107,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,15 +1379,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1376,26 +1395,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,7 +1522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1581,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,315 +1665,306 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="89.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6719" style="1" customWidth="1"/>
     <col min="5" max="5" width="180.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="133.1640625" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="133.172" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="28" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="21.5" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" ht="94" customHeight="1">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" ht="248" customHeight="1">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="96" customHeight="1">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" ht="148" customHeight="1">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="99" customHeight="1">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E8" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="103" customHeight="1">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="108" customHeight="1">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" ht="106" customHeight="1">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" ht="100" customHeight="1">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s" s="20">
+        <v>46</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" ht="98" customHeight="1">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="15">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" ht="98" customHeight="1">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="15">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C14" t="s" s="17">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="12" t="s">
+    <row r="15" ht="120" customHeight="1">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="16">
         <v>55</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="248" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="148" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="D15" t="s" s="21">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="22" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Table 1</t>
   </si>
@@ -45,6 +45,13 @@
   </si>
   <si>
     <t>Используя рекурсию найти сумму цифр числа. Нельзя использовать строки, списки, массивы</t>
+  </si>
+  <si>
+    <t>Написать программу, которая должна выполнять следующие операции:
+Создавать стек.
+Операцию дополнения стека
+Операцию просмотра стека
+Операцию удаления элементов стека.</t>
   </si>
   <si>
     <t>Никитина Наталия</t>
@@ -158,6 +165,13 @@
     <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только буквы разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих букв по алфавиту Результат записать в файл.</t>
   </si>
   <si>
+    <t>Написать программу, которая должна выполнять следующие операции:
+Создавать очередь.
+Операцию дополнения очереди
+Операцию просмотра очереди
+Операцию удаления элементов очереди.</t>
+  </si>
+  <si>
     <t>Донских Ольга</t>
   </si>
   <si>
@@ -185,6 +199,9 @@
     <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "Пирамидальная сортировка" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
   </si>
   <si>
+    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
+  </si>
+  <si>
     <t>Леденев Максим</t>
   </si>
   <si>
@@ -192,9 +209,6 @@
   </si>
   <si>
     <t>Реализовать программу, которая принимает на вход количество элементов массива, выполняет генерацию 3 массивов отсортированных по возрастанию, по убыванию и случайным образом соответственно. Сортирует каждый из массивов используя алгоритм "" и сортировку "выбором". После выполнения выводит данные отчета по выполнению сортировки в формате: как отсортирован массив, время, занявшее на сортировку каждым из методов.</t>
-  </si>
-  <si>
-    <t>На вход подется путь к текстовому файлу, необходимо его открыть, Проверить что в файле находятся только числа разделенные запятными. Реализовать рекурсивный алгоритм сортировки этих чисел по алфавиту Результат записать в файл.</t>
   </si>
   <si>
     <t>Ехина Алена</t>
@@ -246,7 +260,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +291,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -478,6 +498,81 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -494,7 +589,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -507,10 +602,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -531,27 +626,30 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -559,6 +657,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,6 +699,7 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff292929"/>
       <rgbColor rgb="ffc4e5af"/>
+      <rgbColor rgb="ffb6df9b"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1741,44 +1855,46 @@
       <c r="E3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" t="s" s="13">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="94" customHeight="1">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="E4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" ht="248" customHeight="1">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="17">
         <v>16</v>
       </c>
+      <c r="C5" t="s" s="19">
+        <v>17</v>
+      </c>
       <c r="D5" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="19">
+      <c r="E5" t="s" s="13">
         <v>19</v>
+      </c>
+      <c r="F5" t="s" s="20">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="96" customHeight="1">
@@ -1786,37 +1902,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="17">
         <v>21</v>
       </c>
+      <c r="C6" t="s" s="19">
+        <v>22</v>
+      </c>
       <c r="D6" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" ht="148" customHeight="1">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="17">
         <v>24</v>
       </c>
+      <c r="C7" t="s" s="19">
+        <v>25</v>
+      </c>
       <c r="D7" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="18">
+      <c r="E7" t="s" s="13">
         <v>27</v>
+      </c>
+      <c r="F7" t="s" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="99" customHeight="1">
@@ -1824,19 +1940,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="17">
         <v>29</v>
       </c>
+      <c r="C8" t="s" s="19">
+        <v>30</v>
+      </c>
       <c r="D8" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="F8" t="s" s="18">
+      <c r="E8" t="s" s="13">
         <v>32</v>
+      </c>
+      <c r="F8" t="s" s="13">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="103" customHeight="1">
@@ -1844,19 +1960,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s" s="17">
         <v>34</v>
       </c>
+      <c r="C9" t="s" s="19">
+        <v>35</v>
+      </c>
       <c r="D9" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s" s="18">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s" s="13">
         <v>36</v>
+      </c>
+      <c r="F9" t="s" s="13">
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1">
@@ -1864,100 +1980,104 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="17">
         <v>38</v>
       </c>
+      <c r="C10" t="s" s="19">
+        <v>39</v>
+      </c>
       <c r="D10" t="s" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="17">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" ht="106" customHeight="1">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" t="s" s="15">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="16">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s" s="20">
-        <v>43</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" ht="100" customHeight="1">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s" s="20">
         <v>46</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" t="s" s="22">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" ht="98" customHeight="1">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s" s="16">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s" s="20">
+      <c r="B13" t="s" s="23">
         <v>49</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="25">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s" s="17">
+        <v>52</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" ht="98" customHeight="1">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="17">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="26">
+        <v>54</v>
       </c>
       <c r="D14" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s" s="17">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" ht="120" customHeight="1">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" t="s" s="15">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s" s="16">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="D15" t="s" s="27">
+        <v>58</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Table 1</t>
   </si>
@@ -100,6 +100,9 @@
 При решении этой задачи необходимо использовать рекурсивную функцию,  нельзя использовать строки, списки, массивы (ну и циклы, разумеется).</t>
   </si>
   <si>
+    <t>Написать программу, которая должна выполнять следующие операции: Создавать односвязый список. Операцию дополнения списка Операцию просмотра списка Операцию удаления элементов списка. Сортировку.</t>
+  </si>
+  <si>
     <t>Сучкова Мария</t>
   </si>
   <si>
@@ -227,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -256,6 +259,11 @@
     </font>
     <font>
       <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -504,7 +512,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,7 +521,7 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -525,22 +533,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -561,7 +569,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -589,7 +597,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -620,55 +628,61 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -698,8 +712,8 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff292929"/>
+      <rgbColor rgb="ffb6df9b"/>
       <rgbColor rgb="ffc4e5af"/>
-      <rgbColor rgb="ffb6df9b"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1798,7 +1812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
@@ -1872,10 +1886,10 @@
       <c r="D4" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="17">
+      <c r="E4" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" ht="248" customHeight="1">
       <c r="A5" s="14">
@@ -1884,13 +1898,13 @@
       <c r="B5" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C5" t="s" s="18">
         <v>17</v>
       </c>
       <c r="D5" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="19">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="20">
@@ -1904,35 +1918,37 @@
       <c r="B6" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="19">
+      <c r="C6" t="s" s="18">
         <v>22</v>
       </c>
       <c r="D6" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E6" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" t="s" s="21">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" ht="148" customHeight="1">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="19">
         <v>25</v>
       </c>
+      <c r="C7" t="s" s="18">
+        <v>26</v>
+      </c>
       <c r="D7" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="F7" t="s" s="13">
+      <c r="E7" t="s" s="19">
         <v>28</v>
+      </c>
+      <c r="F7" t="s" s="19">
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="99" customHeight="1">
@@ -1940,19 +1956,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="19">
         <v>30</v>
       </c>
+      <c r="C8" t="s" s="18">
+        <v>31</v>
+      </c>
       <c r="D8" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="F8" t="s" s="13">
+      <c r="E8" t="s" s="19">
         <v>33</v>
+      </c>
+      <c r="F8" t="s" s="19">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="103" customHeight="1">
@@ -1960,19 +1976,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s" s="19">
         <v>35</v>
       </c>
+      <c r="C9" t="s" s="18">
+        <v>36</v>
+      </c>
       <c r="D9" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="19">
         <v>37</v>
+      </c>
+      <c r="F9" t="s" s="19">
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1">
@@ -1980,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="19">
         <v>39</v>
       </c>
+      <c r="C10" t="s" s="18">
+        <v>40</v>
+      </c>
       <c r="D10" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s" s="17">
         <v>42</v>
+      </c>
+      <c r="F10" t="s" s="13">
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="106" customHeight="1">
@@ -2000,91 +2016,91 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="16">
         <v>44</v>
       </c>
-      <c r="D11" t="s" s="21">
+      <c r="C11" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="D11" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" ht="100" customHeight="1">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="22">
         <v>47</v>
       </c>
-      <c r="D12" t="s" s="21">
+      <c r="C12" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="D12" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" ht="98" customHeight="1">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="23">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s" s="24">
+      <c r="B13" t="s" s="25">
         <v>50</v>
       </c>
-      <c r="D13" t="s" s="25">
+      <c r="C13" t="s" s="26">
         <v>51</v>
       </c>
-      <c r="E13" t="s" s="17">
+      <c r="D13" t="s" s="27">
         <v>52</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="E13" t="s" s="13">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" ht="98" customHeight="1">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="28">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="C14" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s" s="17">
-        <v>52</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" ht="120" customHeight="1">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s" s="16">
         <v>57</v>
       </c>
-      <c r="D15" t="s" s="27">
+      <c r="C15" t="s" s="22">
         <v>58</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="D15" t="s" s="29">
+        <v>59</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Лабораторные работы.xlsx
+++ b/Лабораторные работы.xlsx
@@ -2074,10 +2074,12 @@
       <c r="D14" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E14" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" t="s" s="13">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="120" customHeight="1">
       <c r="A15" s="14">
